--- a/data/Туризм_Форма 44 денна заочна 2020.xlsx
+++ b/data/Туризм_Форма 44 денна заочна 2020.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabota\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Денне" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Денне!$A$1:$I$101</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Заочне!$A$1:$I$101</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="135">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -474,12 +469,18 @@
   <si>
     <t>МТЕ-119;  МТЕ-129;  МТЕ-139; МТЕ-149</t>
   </si>
+  <si>
+    <t>Мамотенко Дар'я Юріївна</t>
+  </si>
+  <si>
+    <t>Бєлікова Марина Володимирівна</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +591,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -653,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -745,6 +753,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -762,6 +773,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -859,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1036,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1050,16 +1064,16 @@
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1073,31 +1087,31 @@
       <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -1110,18 +1124,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1134,20 +1148,20 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="18"/>
       <c r="C9" s="3"/>
@@ -1158,31 +1172,31 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1224,7 +1238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1282,7 +1296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>2</v>
       </c>
@@ -1340,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>4</v>
       </c>
@@ -1369,7 +1383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>5</v>
       </c>
@@ -1398,7 +1412,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>6</v>
       </c>
@@ -1427,7 +1441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>7</v>
       </c>
@@ -1456,7 +1470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>8</v>
       </c>
@@ -1659,7 +1673,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>15</v>
       </c>
@@ -1686,7 +1700,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>16</v>
       </c>
@@ -1713,7 +1727,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>17</v>
       </c>
@@ -1742,7 +1756,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>18</v>
       </c>
@@ -1771,7 +1785,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>19</v>
       </c>
@@ -1798,7 +1812,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>20</v>
       </c>
@@ -1825,7 +1839,7 @@
       </c>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>21</v>
       </c>
@@ -1852,7 +1866,7 @@
       </c>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>22</v>
       </c>
@@ -1879,7 +1893,7 @@
       </c>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>23</v>
       </c>
@@ -1906,7 +1920,7 @@
       </c>
       <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>24</v>
       </c>
@@ -1933,7 +1947,7 @@
       </c>
       <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>25</v>
       </c>
@@ -1987,7 +2001,7 @@
       </c>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>27</v>
       </c>
@@ -2014,7 +2028,7 @@
       </c>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>28</v>
       </c>
@@ -2041,7 +2055,7 @@
       </c>
       <c r="I42" s="24"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>29</v>
       </c>
@@ -2068,7 +2082,7 @@
       </c>
       <c r="I43" s="24"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>30</v>
       </c>
@@ -2095,7 +2109,7 @@
       </c>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>31</v>
       </c>
@@ -2122,7 +2136,7 @@
       </c>
       <c r="I45" s="24"/>
     </row>
-    <row r="46" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>32</v>
       </c>
@@ -2149,7 +2163,7 @@
       </c>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>33</v>
       </c>
@@ -2203,7 +2217,7 @@
       </c>
       <c r="I48" s="24"/>
     </row>
-    <row r="49" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>35</v>
       </c>
@@ -2230,7 +2244,7 @@
       </c>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>36</v>
       </c>
@@ -2257,7 +2271,7 @@
       </c>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>37</v>
       </c>
@@ -2284,7 +2298,7 @@
       </c>
       <c r="I51" s="24"/>
     </row>
-    <row r="52" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>38</v>
       </c>
@@ -2311,7 +2325,7 @@
       </c>
       <c r="I52" s="24"/>
     </row>
-    <row r="53" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>39</v>
       </c>
@@ -2340,7 +2354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>40</v>
       </c>
@@ -2369,7 +2383,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>41</v>
       </c>
@@ -2396,7 +2410,7 @@
       </c>
       <c r="I55" s="24"/>
     </row>
-    <row r="56" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42</v>
       </c>
@@ -2531,7 +2545,7 @@
       </c>
       <c r="I60" s="24"/>
     </row>
-    <row r="61" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>47</v>
       </c>
@@ -2560,7 +2574,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>48</v>
       </c>
@@ -2589,7 +2603,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>49</v>
       </c>
@@ -2618,7 +2632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>50</v>
       </c>
@@ -2645,7 +2659,7 @@
       </c>
       <c r="I64" s="24"/>
     </row>
-    <row r="65" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>51</v>
       </c>
@@ -2672,7 +2686,7 @@
       </c>
       <c r="I65" s="24"/>
     </row>
-    <row r="66" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>52</v>
       </c>
@@ -2699,7 +2713,7 @@
       </c>
       <c r="I66" s="24"/>
     </row>
-    <row r="67" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>53</v>
       </c>
@@ -2782,7 +2796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>56</v>
       </c>
@@ -2811,7 +2825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>57</v>
       </c>
@@ -2840,7 +2854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>58</v>
       </c>
@@ -2927,7 +2941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>61</v>
       </c>
@@ -2956,7 +2970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>62</v>
       </c>
@@ -2985,7 +2999,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>63</v>
       </c>
@@ -3014,7 +3028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>64</v>
       </c>
@@ -3043,7 +3057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>65</v>
       </c>
@@ -3072,7 +3086,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>66</v>
       </c>
@@ -3101,7 +3115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>67</v>
       </c>
@@ -3130,7 +3144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>68</v>
       </c>
@@ -3159,7 +3173,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>69</v>
       </c>
@@ -3184,7 +3198,7 @@
       </c>
       <c r="I83" s="24"/>
     </row>
-    <row r="84" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>70</v>
       </c>
@@ -3213,7 +3227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>71</v>
       </c>
@@ -3242,7 +3256,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>72</v>
       </c>
@@ -3271,7 +3285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>73</v>
       </c>
@@ -3300,7 +3314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>74</v>
       </c>
@@ -3329,7 +3343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>75</v>
       </c>
@@ -3358,7 +3372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>76</v>
       </c>
@@ -3385,7 +3399,7 @@
       </c>
       <c r="I90" s="24"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>77</v>
       </c>
@@ -3412,7 +3426,7 @@
       </c>
       <c r="I91" s="24"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>78</v>
       </c>
@@ -3439,7 +3453,7 @@
       </c>
       <c r="I92" s="24"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>79</v>
       </c>
@@ -3535,7 +3549,7 @@
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
     </row>
-    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>3</v>
       </c>
@@ -3558,29 +3572,29 @@
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
     </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="33" t="s">
+      <c r="H99" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="33"/>
+      <c r="I99" s="34"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="H100" s="34" t="s">
+      <c r="H100" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="34"/>
-    </row>
-    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>15</v>
       </c>
@@ -3630,20 +3644,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3657,31 +3671,31 @@
       <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -3694,18 +3708,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
@@ -3718,20 +3732,20 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="18"/>
       <c r="C9" s="11"/>
@@ -3742,31 +3756,31 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -3808,7 +3822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -3837,7 +3851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -3862,7 +3876,7 @@
       </c>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>2</v>
       </c>
@@ -4087,7 +4101,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>11</v>
       </c>
@@ -4107,8 +4121,8 @@
       <c r="G25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>39</v>
+      <c r="H25" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="I25" s="24"/>
     </row>
@@ -4132,8 +4146,8 @@
       <c r="G26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>39</v>
+      <c r="H26" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="I26" s="24"/>
     </row>
@@ -4157,8 +4171,8 @@
       <c r="G27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>39</v>
+      <c r="H27" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="I27" s="24"/>
     </row>
@@ -4182,8 +4196,8 @@
       <c r="G28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>39</v>
+      <c r="H28" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="I28" s="24"/>
     </row>
@@ -4207,16 +4221,16 @@
       <c r="G29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="24" t="s">
-        <v>39</v>
+      <c r="H29" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>16</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -4237,11 +4251,11 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>17</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -4262,7 +4276,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>18</v>
       </c>
@@ -4287,7 +4301,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>19</v>
       </c>
@@ -4312,7 +4326,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>20</v>
       </c>
@@ -4337,7 +4351,7 @@
       </c>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>21</v>
       </c>
@@ -4362,7 +4376,7 @@
       </c>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>22</v>
       </c>
@@ -4387,7 +4401,7 @@
       </c>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>23</v>
       </c>
@@ -4412,7 +4426,7 @@
       </c>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>24</v>
       </c>
@@ -4437,7 +4451,7 @@
       </c>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>25</v>
       </c>
@@ -4462,7 +4476,7 @@
       </c>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>26</v>
       </c>
@@ -4487,7 +4501,7 @@
       </c>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>27</v>
       </c>
@@ -4537,7 +4551,7 @@
       </c>
       <c r="I42" s="24"/>
     </row>
-    <row r="43" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>29</v>
       </c>
@@ -4562,7 +4576,7 @@
       </c>
       <c r="I43" s="24"/>
     </row>
-    <row r="44" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>30</v>
       </c>
@@ -4587,7 +4601,7 @@
       </c>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>31</v>
       </c>
@@ -4662,7 +4676,7 @@
       </c>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>34</v>
       </c>
@@ -4687,7 +4701,7 @@
       </c>
       <c r="I48" s="24"/>
     </row>
-    <row r="49" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>35</v>
       </c>
@@ -4862,7 +4876,7 @@
       </c>
       <c r="I55" s="24"/>
     </row>
-    <row r="56" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42</v>
       </c>
@@ -4887,7 +4901,7 @@
       </c>
       <c r="I56" s="24"/>
     </row>
-    <row r="57" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>43</v>
       </c>
@@ -5406,7 +5420,7 @@
       </c>
       <c r="I77" s="24"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>64</v>
       </c>
@@ -5431,7 +5445,7 @@
       </c>
       <c r="I78" s="24"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>65</v>
       </c>
@@ -5476,8 +5490,8 @@
       <c r="G80" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="24" t="s">
-        <v>87</v>
+      <c r="H80" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="I80" s="24"/>
     </row>
@@ -5501,8 +5515,8 @@
       <c r="G81" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="24" t="s">
-        <v>87</v>
+      <c r="H81" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="I81" s="24"/>
     </row>
@@ -5606,7 +5620,7 @@
       </c>
       <c r="I85" s="24"/>
     </row>
-    <row r="86" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>72</v>
       </c>
@@ -5631,7 +5645,7 @@
       </c>
       <c r="I86" s="24"/>
     </row>
-    <row r="87" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>73</v>
       </c>
@@ -5656,7 +5670,7 @@
       </c>
       <c r="I87" s="24"/>
     </row>
-    <row r="88" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>74</v>
       </c>
@@ -5681,7 +5695,7 @@
       </c>
       <c r="I88" s="24"/>
     </row>
-    <row r="89" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>75</v>
       </c>
@@ -5706,7 +5720,7 @@
       </c>
       <c r="I89" s="24"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>76</v>
       </c>
@@ -5731,7 +5745,7 @@
       </c>
       <c r="I90" s="24"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>77</v>
       </c>
@@ -5756,7 +5770,7 @@
       </c>
       <c r="I91" s="24"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>78</v>
       </c>
@@ -5781,7 +5795,7 @@
       </c>
       <c r="I92" s="24"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>79</v>
       </c>
@@ -5867,7 +5881,7 @@
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
     </row>
-    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>3</v>
       </c>
@@ -5890,29 +5904,29 @@
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
     </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="33" t="s">
+      <c r="H99" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="33"/>
+      <c r="I99" s="34"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="H100" s="34" t="s">
+      <c r="H100" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="34"/>
-    </row>
-    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>15</v>
       </c>

--- a/data/Туризм_Форма 44 денна заочна 2020.xlsx
+++ b/data/Туризм_Форма 44 денна заочна 2020.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="9090" yWindow="330" windowWidth="12630" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Денне" sheetId="1" r:id="rId1"/>
     <sheet name="Заочне" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Денне!$A$1:$I$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Заочне!$A$1:$I$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Денне!$A$1:$J$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Заочне!$A$1:$J$101</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="128">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Організація діяльності туристських фірм</t>
   </si>
   <si>
-    <t xml:space="preserve">Бренд-менеджмент </t>
-  </si>
-  <si>
     <t>Гурова Дар'я Дмитрівна</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Бут Тетяна Вікторівна</t>
   </si>
   <si>
-    <t>388/а</t>
-  </si>
-  <si>
     <t>Спеціалізований туризм</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>Готельні анімаційні послуги</t>
   </si>
   <si>
-    <t>МТЕ 419</t>
-  </si>
-  <si>
     <t>акт.зал гурт. №4</t>
   </si>
   <si>
@@ -264,9 +255,6 @@
     <t>МТЕ-119сп</t>
   </si>
   <si>
-    <t>МТЕ-118-128, МТЕ-138-158</t>
-  </si>
-  <si>
     <t>Зайцева Валентина Миколаївна</t>
   </si>
   <si>
@@ -286,9 +274,6 @@
   </si>
   <si>
     <t>Діловодство в туризмі</t>
-  </si>
-  <si>
-    <t>Бєлікова Марина Воломирівна</t>
   </si>
   <si>
     <t>388а</t>
@@ -353,9 +338,6 @@
     <t>Віндюк Андрій Валерійович</t>
   </si>
   <si>
-    <t>вівторок, середа</t>
-  </si>
-  <si>
     <t>Корнієнко Ольга Миколаївна</t>
   </si>
   <si>
@@ -371,9 +353,6 @@
     <t>Інноваційні технології в готельному господарстві</t>
   </si>
   <si>
-    <t>комп.клас 394; 1.1</t>
-  </si>
-  <si>
     <t>МТЕз-415</t>
   </si>
   <si>
@@ -386,12 +365,6 @@
     <t>Моніторінг світового ринку готельних та ресторанних послуг</t>
   </si>
   <si>
-    <t>МТЕз 415</t>
-  </si>
-  <si>
-    <t>МТЕз 116</t>
-  </si>
-  <si>
     <t>Навчальний практикум</t>
   </si>
   <si>
@@ -401,12 +374,6 @@
     <t>МТЕз 119</t>
   </si>
   <si>
-    <t>МТЕз 118</t>
-  </si>
-  <si>
-    <t>МТЕз 117</t>
-  </si>
-  <si>
     <t>МТЕз-117</t>
   </si>
   <si>
@@ -474,6 +441,18 @@
   </si>
   <si>
     <t>Бєлікова Марина Володимирівна</t>
+  </si>
+  <si>
+    <t>Бренд-менеджмент</t>
+  </si>
+  <si>
+    <t>388; 388а</t>
+  </si>
+  <si>
+    <t>вівторок; середа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МТЕ-118; МТЕ-128; МТЕ-138; МТЕ-158 </t>
   </si>
 </sst>
 </file>
@@ -599,12 +578,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -661,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,6 +741,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -773,9 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1058,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,48 +1072,50 @@
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="32" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="17"/>
       <c r="C5" s="2"/>
@@ -1123,21 +1125,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="18"/>
       <c r="C7" s="3"/>
@@ -1146,22 +1150,24 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="11"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="18"/>
       <c r="C9" s="3"/>
@@ -1170,35 +1176,38 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="11"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="19"/>
       <c r="C12" s="5"/>
@@ -1207,9 +1216,10 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="13"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1237,8 +1247,11 @@
       <c r="I13" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="J13" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1266,8 +1279,11 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>18</v>
@@ -1295,8 +1311,9 @@
       <c r="I15" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>2</v>
       </c>
@@ -1304,7 +1321,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>22</v>
@@ -1324,8 +1341,9 @@
       <c r="I16" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>3</v>
       </c>
@@ -1353,8 +1371,9 @@
       <c r="I17" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>4</v>
       </c>
@@ -1382,8 +1401,9 @@
       <c r="I18" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>5</v>
       </c>
@@ -1391,7 +1411,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>18</v>
@@ -1411,8 +1431,9 @@
       <c r="I19" s="24">
         <v>388</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>6</v>
       </c>
@@ -1420,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>30</v>
@@ -1440,8 +1461,9 @@
       <c r="I20" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>7</v>
       </c>
@@ -1469,8 +1491,9 @@
       <c r="I21" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>8</v>
       </c>
@@ -1498,8 +1521,9 @@
       <c r="I22" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>9</v>
       </c>
@@ -1527,8 +1551,9 @@
       <c r="I23" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>10</v>
       </c>
@@ -1556,8 +1581,9 @@
       <c r="I24" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>11</v>
       </c>
@@ -1585,8 +1611,9 @@
       <c r="I25" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>12</v>
       </c>
@@ -1614,8 +1641,9 @@
       <c r="I26" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>13</v>
       </c>
@@ -1643,8 +1671,9 @@
       <c r="I27" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>14</v>
       </c>
@@ -1672,8 +1701,9 @@
       <c r="I28" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>15</v>
       </c>
@@ -1681,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>18</v>
@@ -1699,8 +1729,9 @@
         <v>39</v>
       </c>
       <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>16</v>
       </c>
@@ -1708,7 +1739,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>30</v>
@@ -1726,13 +1757,14 @@
         <v>39</v>
       </c>
       <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>17</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>42</v>
@@ -1755,13 +1787,14 @@
       <c r="I31" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>18</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>42</v>
@@ -1784,8 +1817,9 @@
       <c r="I32" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>19</v>
       </c>
@@ -1793,7 +1827,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>18</v>
@@ -1811,8 +1845,9 @@
         <v>40</v>
       </c>
       <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>20</v>
       </c>
@@ -1820,7 +1855,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>30</v>
@@ -1838,8 +1873,9 @@
         <v>40</v>
       </c>
       <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>21</v>
       </c>
@@ -1847,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>18</v>
@@ -1865,8 +1901,9 @@
         <v>40</v>
       </c>
       <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>22</v>
       </c>
@@ -1874,7 +1911,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>30</v>
@@ -1892,8 +1929,9 @@
         <v>40</v>
       </c>
       <c r="I36" s="24"/>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>23</v>
       </c>
@@ -1919,8 +1957,9 @@
         <v>40</v>
       </c>
       <c r="I37" s="24"/>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>24</v>
       </c>
@@ -1946,8 +1985,9 @@
         <v>40</v>
       </c>
       <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>25</v>
       </c>
@@ -1955,7 +1995,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>18</v>
@@ -1973,8 +2013,9 @@
         <v>46</v>
       </c>
       <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>26</v>
       </c>
@@ -1982,7 +2023,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>30</v>
@@ -2000,8 +2041,9 @@
         <v>46</v>
       </c>
       <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>27</v>
       </c>
@@ -2009,7 +2051,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>18</v>
@@ -2027,8 +2069,9 @@
         <v>46</v>
       </c>
       <c r="I41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>28</v>
       </c>
@@ -2036,7 +2079,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>30</v>
@@ -2054,13 +2097,14 @@
         <v>46</v>
       </c>
       <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>29</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>48</v>
+      <c r="B43" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>29</v>
@@ -2081,13 +2125,14 @@
         <v>46</v>
       </c>
       <c r="I43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>30</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>48</v>
+      <c r="B44" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>29</v>
@@ -2108,16 +2153,17 @@
         <v>46</v>
       </c>
       <c r="I44" s="31"/>
-    </row>
-    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J44" s="38"/>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>31</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>18</v>
@@ -2132,19 +2178,20 @@
         <v>25</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J45" s="37"/>
+    </row>
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>32</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>30</v>
@@ -2159,19 +2206,20 @@
         <v>25</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J46" s="37"/>
+    </row>
+    <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>33</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>18</v>
@@ -2186,19 +2234,20 @@
         <v>25</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="37"/>
+    </row>
+    <row r="48" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>34</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>30</v>
@@ -2213,19 +2262,20 @@
         <v>25</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J48" s="37"/>
+    </row>
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>35</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>18</v>
@@ -2240,19 +2290,20 @@
         <v>19</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J49" s="37"/>
+    </row>
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>36</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>30</v>
@@ -2267,22 +2318,23 @@
         <v>19</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J50" s="37"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>37</v>
       </c>
       <c r="B51" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="E51" s="24">
         <v>20</v>
@@ -2294,19 +2346,20 @@
         <v>25</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I51" s="24"/>
-    </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J51" s="37"/>
+    </row>
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>38</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>30</v>
@@ -2321,19 +2374,20 @@
         <v>25</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I52" s="24"/>
-    </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J52" s="37"/>
+    </row>
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>39</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>22</v>
@@ -2348,21 +2402,22 @@
         <v>19</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J53" s="37"/>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>40</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>22</v>
@@ -2377,21 +2432,22 @@
         <v>19</v>
       </c>
       <c r="H54" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J54" s="37"/>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>41</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>18</v>
@@ -2406,19 +2462,20 @@
         <v>25</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I55" s="24"/>
-    </row>
-    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J55" s="37"/>
+    </row>
+    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>30</v>
@@ -2433,19 +2490,20 @@
         <v>25</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I56" s="24"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="37"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>43</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>18</v>
@@ -2460,19 +2518,20 @@
         <v>25</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I57" s="24"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="37"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>30</v>
@@ -2487,16 +2546,17 @@
         <v>25</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I58" s="24"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="37"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>45</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>29</v>
@@ -2514,16 +2574,17 @@
         <v>25</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I59" s="24"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="37"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>46</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>29</v>
@@ -2541,19 +2602,20 @@
         <v>25</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I60" s="24"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J60" s="37"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>47</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>18</v>
@@ -2568,21 +2630,22 @@
         <v>25</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I61" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J61" s="37"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>48</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>30</v>
@@ -2597,21 +2660,22 @@
         <v>25</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I62" s="24">
         <v>486</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J62" s="37"/>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>49</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>18</v>
@@ -2626,21 +2690,22 @@
         <v>25</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" s="37"/>
+    </row>
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>50</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>30</v>
@@ -2655,19 +2720,20 @@
         <v>25</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I64" s="24"/>
-    </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J64" s="37"/>
+    </row>
+    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>51</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>30</v>
@@ -2682,19 +2748,20 @@
         <v>25</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I65" s="24"/>
-    </row>
-    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J65" s="37"/>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>52</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>18</v>
@@ -2709,19 +2776,20 @@
         <v>25</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I66" s="24"/>
-    </row>
-    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J66" s="37"/>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>53</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>22</v>
@@ -2736,19 +2804,20 @@
         <v>25</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I67" s="24"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="37"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>54</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>18</v>
@@ -2763,19 +2832,20 @@
         <v>25</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I68" s="24"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="37"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="32">
         <v>55</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>30</v>
@@ -2790,21 +2860,22 @@
         <v>25</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J69" s="37"/>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>56</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>79</v>
+        <v>51</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>18</v>
@@ -2819,21 +2890,22 @@
         <v>19</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="J70" s="37"/>
+    </row>
+    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>57</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>22</v>
@@ -2848,21 +2920,22 @@
         <v>19</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I71" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J71" s="37"/>
+    </row>
+    <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>58</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>22</v>
@@ -2877,21 +2950,22 @@
         <v>19</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I72" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="37"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>59</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>22</v>
@@ -2906,21 +2980,22 @@
         <v>19</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I73" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="37"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>60</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>18</v>
@@ -2935,18 +3010,19 @@
         <v>19</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I74" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J74" s="37"/>
+    </row>
+    <row r="75" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>61</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C75" s="25" t="s">
         <v>29</v>
@@ -2964,18 +3040,19 @@
         <v>19</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="J75" s="37"/>
+    </row>
+    <row r="76" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>62</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>29</v>
@@ -2993,21 +3070,22 @@
         <v>19</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="J76" s="37"/>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>63</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>18</v>
@@ -3022,21 +3100,22 @@
         <v>19</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="J77" s="37"/>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>64</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>30</v>
@@ -3051,21 +3130,22 @@
         <v>19</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="J78" s="37"/>
+    </row>
+    <row r="79" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>65</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>18</v>
@@ -3079,22 +3159,23 @@
       <c r="G79" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H79" s="24" t="s">
-        <v>87</v>
+      <c r="H79" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J79" s="37"/>
+    </row>
+    <row r="80" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>66</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>30</v>
@@ -3108,22 +3189,23 @@
       <c r="G80" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="24" t="s">
-        <v>87</v>
+      <c r="H80" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J80" s="37"/>
+    </row>
+    <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>67</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>18</v>
@@ -3138,21 +3220,22 @@
         <v>19</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I81" s="24"/>
+      <c r="J81" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>68</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>30</v>
@@ -3167,21 +3250,22 @@
         <v>19</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I82" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I82" s="24"/>
+      <c r="J82" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>69</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>22</v>
@@ -3194,19 +3278,20 @@
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I83" s="24"/>
-    </row>
-    <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J83" s="37"/>
+    </row>
+    <row r="84" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>70</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>18</v>
@@ -3221,21 +3306,22 @@
         <v>19</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I84" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J84" s="37"/>
+    </row>
+    <row r="85" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>71</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>30</v>
@@ -3250,18 +3336,19 @@
         <v>19</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J85" s="37"/>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>72</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>32</v>
@@ -3279,18 +3366,19 @@
         <v>25</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J86" s="37"/>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>73</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>32</v>
@@ -3308,18 +3396,19 @@
         <v>25</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I87" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I87" s="34">
+        <v>394</v>
+      </c>
+      <c r="J87" s="37"/>
+    </row>
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>74</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C88" s="25" t="s">
         <v>32</v>
@@ -3337,18 +3426,19 @@
         <v>19</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I88" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J88" s="37"/>
+    </row>
+    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>75</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C89" s="25" t="s">
         <v>32</v>
@@ -3366,21 +3456,22 @@
         <v>19</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I89" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J89" s="37"/>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>76</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>18</v>
@@ -3395,19 +3486,20 @@
         <v>25</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I90" s="24"/>
-    </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J90" s="37"/>
+    </row>
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>77</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>30</v>
@@ -3422,19 +3514,20 @@
         <v>25</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I91" s="24"/>
-    </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J91" s="37"/>
+    </row>
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>78</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>18</v>
@@ -3449,19 +3542,20 @@
         <v>25</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I92" s="24"/>
-    </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J92" s="37"/>
+    </row>
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>79</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>30</v>
@@ -3476,16 +3570,17 @@
         <v>25</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I93" s="24"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="37"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>80</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C94" s="25" t="s">
         <v>29</v>
@@ -3503,18 +3598,19 @@
         <v>19</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="J94" s="37"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>81</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C95" s="25" t="s">
         <v>29</v>
@@ -3532,13 +3628,14 @@
         <v>19</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="J95" s="37"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="27"/>
@@ -3548,8 +3645,9 @@
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
-    </row>
-    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J96" s="22"/>
+    </row>
+    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>3</v>
       </c>
@@ -3561,8 +3659,9 @@
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="22"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B98" s="23"/>
       <c r="C98" s="22"/>
       <c r="D98" s="26"/>
@@ -3571,36 +3670,39 @@
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="34" t="s">
+      <c r="H99" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="34"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="H100" s="35" t="s">
+      <c r="H100" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="35"/>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+    </row>
+    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="9"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -3608,8 +3710,9 @@
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
@@ -3617,23 +3720,24 @@
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C104" s="15"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C105" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3642,10 +3746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,48 +3760,50 @@
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="32" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="17"/>
       <c r="C5" s="2"/>
@@ -3707,21 +3813,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="18"/>
       <c r="C7" s="11"/>
@@ -3731,21 +3839,23 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="18"/>
       <c r="C9" s="11"/>
@@ -3755,34 +3865,37 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="19"/>
       <c r="C12" s="13"/>
@@ -3792,8 +3905,9 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -3821,8 +3935,11 @@
       <c r="I13" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="J13" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -3850,8 +3967,11 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J14" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -3859,7 +3979,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>18</v>
@@ -3875,8 +3995,9 @@
         <v>20</v>
       </c>
       <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>2</v>
       </c>
@@ -3884,7 +4005,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>30</v>
@@ -3900,8 +4021,9 @@
         <v>20</v>
       </c>
       <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>3</v>
       </c>
@@ -3909,7 +4031,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>18</v>
@@ -3925,8 +4047,9 @@
         <v>20</v>
       </c>
       <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>4</v>
       </c>
@@ -3934,7 +4057,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>30</v>
@@ -3950,8 +4073,9 @@
         <v>20</v>
       </c>
       <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>5</v>
       </c>
@@ -3959,7 +4083,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>18</v>
@@ -3975,8 +4099,9 @@
         <v>35</v>
       </c>
       <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>6</v>
       </c>
@@ -3984,7 +4109,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>30</v>
@@ -4000,8 +4125,9 @@
         <v>35</v>
       </c>
       <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>7</v>
       </c>
@@ -4009,7 +4135,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>18</v>
@@ -4025,8 +4151,9 @@
         <v>35</v>
       </c>
       <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>8</v>
       </c>
@@ -4034,7 +4161,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>30</v>
@@ -4050,8 +4177,9 @@
         <v>35</v>
       </c>
       <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>9</v>
       </c>
@@ -4059,7 +4187,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>18</v>
@@ -4075,8 +4203,9 @@
         <v>35</v>
       </c>
       <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>10</v>
       </c>
@@ -4084,7 +4213,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>30</v>
@@ -4100,16 +4229,17 @@
         <v>35</v>
       </c>
       <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>11</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>18</v>
@@ -4121,20 +4251,21 @@
       <c r="G25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="40" t="s">
-        <v>133</v>
+      <c r="H25" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>12</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>106</v>
+      <c r="C26" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>30</v>
@@ -4146,20 +4277,21 @@
       <c r="G26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="40" t="s">
-        <v>133</v>
+      <c r="H26" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>13</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>30</v>
@@ -4171,20 +4303,21 @@
       <c r="G27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="40" t="s">
-        <v>133</v>
+      <c r="H27" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>14</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>30</v>
@@ -4196,20 +4329,21 @@
       <c r="G28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="40" t="s">
-        <v>133</v>
+      <c r="H28" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>15</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>30</v>
@@ -4221,20 +4355,21 @@
       <c r="G29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="40" t="s">
-        <v>133</v>
+      <c r="H29" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>16</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>111</v>
+      <c r="C30" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>18</v>
@@ -4250,16 +4385,17 @@
         <v>40</v>
       </c>
       <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>17</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>111</v>
+      <c r="C31" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>30</v>
@@ -4275,16 +4411,17 @@
         <v>40</v>
       </c>
       <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>18</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>106</v>
+      <c r="C32" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>18</v>
@@ -4300,16 +4437,17 @@
         <v>40</v>
       </c>
       <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>19</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>106</v>
+      <c r="C33" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>30</v>
@@ -4325,8 +4463,9 @@
         <v>40</v>
       </c>
       <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>20</v>
       </c>
@@ -4334,7 +4473,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>18</v>
@@ -4350,8 +4489,9 @@
         <v>40</v>
       </c>
       <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>21</v>
       </c>
@@ -4359,7 +4499,7 @@
         <v>44</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>30</v>
@@ -4375,16 +4515,17 @@
         <v>40</v>
       </c>
       <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>22</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>106</v>
+      <c r="C36" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>18</v>
@@ -4400,16 +4541,17 @@
         <v>46</v>
       </c>
       <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J36" s="38"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>23</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>106</v>
+      <c r="C37" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>30</v>
@@ -4425,8 +4567,9 @@
         <v>46</v>
       </c>
       <c r="I37" s="31"/>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J37" s="38"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>24</v>
       </c>
@@ -4434,7 +4577,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>18</v>
@@ -4450,8 +4593,9 @@
         <v>46</v>
       </c>
       <c r="I38" s="31"/>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>25</v>
       </c>
@@ -4459,7 +4603,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>30</v>
@@ -4475,16 +4619,17 @@
         <v>46</v>
       </c>
       <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>26</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>48</v>
+      <c r="B40" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>18</v>
@@ -4500,16 +4645,17 @@
         <v>46</v>
       </c>
       <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>27</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>48</v>
+      <c r="B41" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>30</v>
@@ -4525,16 +4671,17 @@
         <v>46</v>
       </c>
       <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="38"/>
+    </row>
+    <row r="42" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>28</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>18</v>
@@ -4547,19 +4694,20 @@
         <v>25</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>29</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>30</v>
@@ -4572,19 +4720,20 @@
         <v>25</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>30</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>18</v>
@@ -4597,19 +4746,20 @@
         <v>25</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="37"/>
+    </row>
+    <row r="45" spans="1:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>31</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>30</v>
@@ -4622,19 +4772,20 @@
         <v>25</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="37"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>32</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>18</v>
@@ -4647,19 +4798,20 @@
         <v>19</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="37"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>33</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>30</v>
@@ -4672,22 +4824,23 @@
         <v>19</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J47" s="37"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>34</v>
       </c>
       <c r="B48" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="E48" s="24">
         <v>4</v>
@@ -4697,19 +4850,20 @@
         <v>25</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J48" s="37"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>35</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>30</v>
@@ -4722,19 +4876,20 @@
         <v>25</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="37"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>36</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>18</v>
@@ -4747,19 +4902,20 @@
         <v>25</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="37"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>37</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>30</v>
@@ -4772,19 +4928,20 @@
         <v>25</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I51" s="24"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="37"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>38</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>18</v>
@@ -4797,19 +4954,20 @@
         <v>25</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I52" s="24"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="37"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>39</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>30</v>
@@ -4822,19 +4980,20 @@
         <v>25</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I53" s="24"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="37"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>40</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>18</v>
@@ -4847,19 +5006,20 @@
         <v>25</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I54" s="24"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="37"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>41</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>30</v>
@@ -4872,19 +5032,20 @@
         <v>25</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I55" s="24"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J55" s="37"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>42</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>18</v>
@@ -4897,19 +5058,20 @@
         <v>25</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I56" s="24"/>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J56" s="37"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>43</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>30</v>
@@ -4922,22 +5084,23 @@
         <v>25</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I57" s="24"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="37"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44</v>
       </c>
       <c r="B58" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="E58" s="24">
         <v>4</v>
@@ -4947,19 +5110,20 @@
         <v>25</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I58" s="24"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="37"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>45</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>30</v>
@@ -4972,11 +5136,12 @@
         <v>25</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I59" s="24"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="37"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>46</v>
       </c>
@@ -4984,7 +5149,7 @@
         <v>24</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>18</v>
@@ -4997,11 +5162,12 @@
         <v>25</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I60" s="24"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="37"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>47</v>
       </c>
@@ -5009,7 +5175,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>22</v>
@@ -5023,16 +5189,17 @@
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="37"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>48</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>22</v>
@@ -5045,19 +5212,20 @@
         <v>19</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I62" s="24"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="37"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>49</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>18</v>
@@ -5070,19 +5238,20 @@
         <v>25</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I63" s="24"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="37"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>50</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>30</v>
@@ -5096,8 +5265,9 @@
       </c>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="37"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>51</v>
       </c>
@@ -5105,7 +5275,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>18</v>
@@ -5118,11 +5288,12 @@
         <v>25</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I65" s="24"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="37"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>52</v>
       </c>
@@ -5130,7 +5301,7 @@
         <v>24</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>22</v>
@@ -5144,16 +5315,17 @@
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="37"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>53</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>22</v>
@@ -5166,19 +5338,20 @@
         <v>19</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I67" s="24"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="37"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>54</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>18</v>
@@ -5191,19 +5364,20 @@
         <v>25</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I68" s="24"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="37"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="32">
         <v>55</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>22</v>
@@ -5216,19 +5390,20 @@
         <v>25</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I69" s="24"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="37"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>56</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>18</v>
@@ -5241,19 +5416,20 @@
         <v>25</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I70" s="24"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="37"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="32">
         <v>57</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>30</v>
@@ -5266,19 +5442,20 @@
         <v>25</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I71" s="24"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="37"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>58</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>18</v>
@@ -5291,19 +5468,20 @@
         <v>19</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I72" s="24"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="37"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>59</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>22</v>
@@ -5316,19 +5494,20 @@
         <v>19</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I73" s="24"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="37"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>60</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>18</v>
@@ -5341,19 +5520,20 @@
         <v>19</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I74" s="24"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="37"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>61</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>22</v>
@@ -5366,19 +5546,20 @@
         <v>19</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I75" s="24"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="37"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>62</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>18</v>
@@ -5391,19 +5572,20 @@
         <v>19</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I76" s="24"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="37"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>63</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>30</v>
@@ -5416,19 +5598,20 @@
         <v>19</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I77" s="24"/>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J77" s="37"/>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>64</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>18</v>
@@ -5441,19 +5624,20 @@
         <v>19</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J78" s="37"/>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>65</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>30</v>
@@ -5466,19 +5650,20 @@
         <v>19</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I79" s="24"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="37"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>66</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>18</v>
@@ -5490,20 +5675,21 @@
       <c r="G80" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="40" t="s">
-        <v>134</v>
+      <c r="H80" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="I80" s="24"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="37"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>67</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>30</v>
@@ -5515,20 +5701,21 @@
       <c r="G81" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="40" t="s">
-        <v>134</v>
+      <c r="H81" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="I81" s="24"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="37"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>68</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>18</v>
@@ -5541,19 +5728,20 @@
         <v>19</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I82" s="24"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="37"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>69</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>30</v>
@@ -5566,19 +5754,20 @@
         <v>19</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I83" s="24"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="37"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>70</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>18</v>
@@ -5591,19 +5780,20 @@
         <v>19</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I84" s="24"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="37"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>71</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>30</v>
@@ -5616,19 +5806,20 @@
         <v>19</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I85" s="24"/>
-    </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J85" s="37"/>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>72</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>18</v>
@@ -5641,19 +5832,20 @@
         <v>25</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J86" s="37"/>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>73</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>30</v>
@@ -5666,19 +5858,20 @@
         <v>25</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I87" s="24"/>
-    </row>
-    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J87" s="37"/>
+    </row>
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>74</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>18</v>
@@ -5691,19 +5884,20 @@
         <v>19</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I88" s="24"/>
-    </row>
-    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J88" s="37"/>
+    </row>
+    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>75</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>30</v>
@@ -5716,19 +5910,20 @@
         <v>19</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I89" s="24"/>
-    </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J89" s="37"/>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>76</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>18</v>
@@ -5741,19 +5936,20 @@
         <v>25</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I90" s="24"/>
-    </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J90" s="37"/>
+    </row>
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>77</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>30</v>
@@ -5766,19 +5962,20 @@
         <v>25</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I91" s="24"/>
-    </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J91" s="37"/>
+    </row>
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>78</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>18</v>
@@ -5791,19 +5988,20 @@
         <v>25</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I92" s="24"/>
-    </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J92" s="37"/>
+    </row>
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>79</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>30</v>
@@ -5816,19 +6014,20 @@
         <v>25</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I93" s="24"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="37"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>80</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>18</v>
@@ -5841,19 +6040,20 @@
         <v>19</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I94" s="24"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="37"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>81</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>30</v>
@@ -5866,11 +6066,12 @@
         <v>19</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I95" s="24"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="37"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="27"/>
@@ -5880,8 +6081,9 @@
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
-    </row>
-    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J96" s="22"/>
+    </row>
+    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>3</v>
       </c>
@@ -5893,8 +6095,9 @@
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="22"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B98" s="23"/>
       <c r="C98" s="22"/>
       <c r="D98" s="26"/>
@@ -5903,36 +6106,39 @@
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="34" t="s">
+      <c r="H99" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="34"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="H100" s="35" t="s">
+      <c r="H100" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="35"/>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+    </row>
+    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="9"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -5940,8 +6146,9 @@
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
@@ -5949,23 +6156,24 @@
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C104" s="15"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C105" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="B11:J11"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/data/Туризм_Форма 44 денна заочна 2020.xlsx
+++ b/data/Туризм_Форма 44 денна заочна 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="330" windowWidth="12630" windowHeight="12390"/>
+    <workbookView xWindow="6270" yWindow="-15" windowWidth="6315" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Денне" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="129">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>Готельні анімаційні послуги</t>
-  </si>
-  <si>
-    <t>акт.зал гурт. №4</t>
   </si>
   <si>
     <t>МТЕ-117; МТЕ-127; МТЕ-137; МТЕ-147; МТЕ-157</t>
@@ -407,59 +404,65 @@
     <t>Присяжнюк Олена Анатоліївна</t>
   </si>
   <si>
+    <t>Форма навчання ЗАОЧНА</t>
+  </si>
+  <si>
+    <t>Форма навчання  ДЕННА</t>
+  </si>
+  <si>
+    <t>МТЕ-118; МТЕ-128; МТЕ-138; МТЕ-148; МТЕ-158; МТЕ-119сп</t>
+  </si>
+  <si>
+    <t>МТЕ-419; МТЕ-429</t>
+  </si>
+  <si>
+    <t>МТЕ-116; МТЕ-126; МТЕ-136; МТЕ-146;  МТЕ-118сп</t>
+  </si>
+  <si>
+    <t>МТЕ-119; МТЕ-129</t>
+  </si>
+  <si>
+    <t>МТЕ-118; МТЕ-128; МТЕ-138; МТЕ-148; МТЕ-158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МТЕ-119; МТЕ-129; МТЕ-139; МТЕ-149 </t>
+  </si>
+  <si>
+    <t>МТЕ-119;  МТЕ-129;  МТЕ-139; МТЕ-149</t>
+  </si>
+  <si>
+    <t>Мамотенко Дар'я Юріївна</t>
+  </si>
+  <si>
+    <t>Бєлікова Марина Володимирівна</t>
+  </si>
+  <si>
+    <t>Бренд-менеджмент</t>
+  </si>
+  <si>
+    <t>388; 388а</t>
+  </si>
+  <si>
+    <t>вівторок; середа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МТЕ-118; МТЕ-128; МТЕ-138; МТЕ-158 </t>
+  </si>
+  <si>
+    <t>акт.зал гурт. №4</t>
+  </si>
+  <si>
     <t>Хім. лабор.</t>
   </si>
   <si>
-    <t>Форма навчання ЗАОЧНА</t>
-  </si>
-  <si>
-    <t>Форма навчання  ДЕННА</t>
-  </si>
-  <si>
-    <t>МТЕ-118; МТЕ-128; МТЕ-138; МТЕ-148; МТЕ-158; МТЕ-119сп</t>
-  </si>
-  <si>
-    <t>МТЕ-419; МТЕ-429</t>
-  </si>
-  <si>
-    <t>МТЕ-116; МТЕ-126; МТЕ-136; МТЕ-146;  МТЕ-118сп</t>
-  </si>
-  <si>
-    <t>МТЕ-119; МТЕ-129</t>
-  </si>
-  <si>
-    <t>МТЕ-118; МТЕ-128; МТЕ-138; МТЕ-148; МТЕ-158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МТЕ-119; МТЕ-129; МТЕ-139; МТЕ-149 </t>
-  </si>
-  <si>
-    <t>МТЕ-119;  МТЕ-129;  МТЕ-139; МТЕ-149</t>
-  </si>
-  <si>
-    <t>Мамотенко Дар'я Юріївна</t>
-  </si>
-  <si>
-    <t>Бєлікова Марина Володимирівна</t>
-  </si>
-  <si>
-    <t>Бренд-менеджмент</t>
-  </si>
-  <si>
-    <t>388; 388а</t>
-  </si>
-  <si>
-    <t>вівторок; середа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МТЕ-118; МТЕ-128; МТЕ-138; МТЕ-158 </t>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +580,18 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -646,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,7 +771,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C67" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,33 +1105,33 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1128,18 +1146,18 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1154,18 +1172,18 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="A8" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1180,32 +1198,32 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
+      <c r="A10" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1245,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>14</v>
@@ -1291,7 +1309,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>18</v>
@@ -1321,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>22</v>
@@ -1411,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>18</v>
@@ -1441,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>30</v>
@@ -1711,7 +1729,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>18</v>
@@ -1739,7 +1757,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>30</v>
@@ -1764,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>42</v>
@@ -1794,7 +1812,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>42</v>
@@ -1827,7 +1845,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>18</v>
@@ -1855,7 +1873,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>30</v>
@@ -1883,7 +1901,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>18</v>
@@ -1911,7 +1929,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>30</v>
@@ -1995,7 +2013,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>18</v>
@@ -2023,7 +2041,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>30</v>
@@ -2051,7 +2069,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>18</v>
@@ -2079,7 +2097,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>30</v>
@@ -2104,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>29</v>
@@ -2132,7 +2150,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>29</v>
@@ -2163,7 +2181,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>18</v>
@@ -2191,7 +2209,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>30</v>
@@ -2219,7 +2237,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>18</v>
@@ -2247,7 +2265,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>30</v>
@@ -2275,7 +2293,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>18</v>
@@ -2303,7 +2321,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>30</v>
@@ -2331,7 +2349,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>55</v>
@@ -2359,7 +2377,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>30</v>
@@ -2387,7 +2405,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>22</v>
@@ -2417,7 +2435,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>22</v>
@@ -2447,7 +2465,7 @@
         <v>61</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>18</v>
@@ -2475,7 +2493,7 @@
         <v>61</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>30</v>
@@ -2503,7 +2521,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>18</v>
@@ -2531,7 +2549,7 @@
         <v>61</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>30</v>
@@ -2675,7 +2693,7 @@
         <v>65</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>18</v>
@@ -2693,7 +2711,7 @@
         <v>67</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J63" s="37"/>
     </row>
@@ -2705,7 +2723,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>30</v>
@@ -2733,7 +2751,7 @@
         <v>68</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>30</v>
@@ -2761,7 +2779,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>18</v>
@@ -2789,7 +2807,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>22</v>
@@ -2862,8 +2880,8 @@
       <c r="H69" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I69" s="24" t="s">
-        <v>73</v>
+      <c r="I69" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="J69" s="37"/>
     </row>
@@ -2875,7 +2893,7 @@
         <v>51</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>18</v>
@@ -2890,7 +2908,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I70" s="24" t="s">
         <v>58</v>
@@ -2905,7 +2923,7 @@
         <v>51</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>22</v>
@@ -2920,7 +2938,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I71" s="24" t="s">
         <v>21</v>
@@ -2935,7 +2953,7 @@
         <v>51</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>22</v>
@@ -2950,7 +2968,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I72" s="24" t="s">
         <v>21</v>
@@ -2965,7 +2983,7 @@
         <v>51</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>22</v>
@@ -2980,7 +2998,7 @@
         <v>19</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I73" s="24" t="s">
         <v>21</v>
@@ -2995,7 +3013,7 @@
         <v>51</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>18</v>
@@ -3010,7 +3028,7 @@
         <v>19</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I74" s="24" t="s">
         <v>21</v>
@@ -3022,7 +3040,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="25" t="s">
         <v>29</v>
@@ -3040,10 +3058,10 @@
         <v>19</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J75" s="37"/>
     </row>
@@ -3052,7 +3070,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>29</v>
@@ -3070,10 +3088,10 @@
         <v>19</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J76" s="37"/>
     </row>
@@ -3082,10 +3100,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>18</v>
@@ -3100,10 +3118,10 @@
         <v>19</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J77" s="37"/>
     </row>
@@ -3112,10 +3130,10 @@
         <v>64</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>30</v>
@@ -3130,10 +3148,10 @@
         <v>19</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J78" s="37"/>
     </row>
@@ -3142,10 +3160,10 @@
         <v>65</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>18</v>
@@ -3160,10 +3178,10 @@
         <v>25</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J79" s="37"/>
     </row>
@@ -3172,10 +3190,10 @@
         <v>66</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>30</v>
@@ -3190,10 +3208,10 @@
         <v>25</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J80" s="37"/>
     </row>
@@ -3202,10 +3220,10 @@
         <v>67</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>18</v>
@@ -3220,11 +3238,11 @@
         <v>19</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I81" s="24"/>
-      <c r="J81" s="39" t="s">
-        <v>126</v>
+      <c r="J81" s="40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3232,10 +3250,10 @@
         <v>68</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>30</v>
@@ -3250,11 +3268,11 @@
         <v>19</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I82" s="24"/>
-      <c r="J82" s="39" t="s">
-        <v>126</v>
+      <c r="J82" s="40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3265,7 +3283,7 @@
         <v>71</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>22</v>
@@ -3278,7 +3296,7 @@
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I83" s="24"/>
       <c r="J83" s="37"/>
@@ -3288,10 +3306,10 @@
         <v>70</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>18</v>
@@ -3306,10 +3324,10 @@
         <v>19</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I84" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J84" s="37"/>
     </row>
@@ -3318,10 +3336,10 @@
         <v>71</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>30</v>
@@ -3336,10 +3354,10 @@
         <v>19</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J85" s="37"/>
     </row>
@@ -3348,7 +3366,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>32</v>
@@ -3366,10 +3384,10 @@
         <v>25</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J86" s="37"/>
     </row>
@@ -3378,7 +3396,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>32</v>
@@ -3396,7 +3414,7 @@
         <v>25</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I87" s="34">
         <v>394</v>
@@ -3408,7 +3426,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="25" t="s">
         <v>32</v>
@@ -3426,7 +3444,7 @@
         <v>19</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I88" s="24" t="s">
         <v>21</v>
@@ -3438,7 +3456,7 @@
         <v>75</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="25" t="s">
         <v>32</v>
@@ -3456,7 +3474,7 @@
         <v>19</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I89" s="24" t="s">
         <v>21</v>
@@ -3468,10 +3486,10 @@
         <v>76</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>18</v>
@@ -3486,7 +3504,7 @@
         <v>25</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="37"/>
@@ -3496,10 +3514,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>30</v>
@@ -3514,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="37"/>
@@ -3524,10 +3542,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>18</v>
@@ -3542,7 +3560,7 @@
         <v>25</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I92" s="24"/>
       <c r="J92" s="37"/>
@@ -3552,10 +3570,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>30</v>
@@ -3570,7 +3588,7 @@
         <v>25</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I93" s="24"/>
       <c r="J93" s="37"/>
@@ -3580,7 +3598,7 @@
         <v>80</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="25" t="s">
         <v>29</v>
@@ -3598,10 +3616,10 @@
         <v>19</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="I94" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="I94" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="J94" s="37"/>
     </row>
@@ -3610,7 +3628,7 @@
         <v>81</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="25" t="s">
         <v>29</v>
@@ -3628,10 +3646,10 @@
         <v>19</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="I95" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="I95" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="J95" s="37"/>
     </row>
@@ -3679,22 +3697,22 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="40" t="s">
+      <c r="H99" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="H100" s="41" t="s">
+      <c r="H100" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
@@ -3748,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,33 +3793,33 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -3816,18 +3834,18 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
@@ -3842,18 +3860,18 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="A8" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -3868,32 +3886,32 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
+      <c r="A10" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -3933,7 +3951,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>14</v>
@@ -3968,7 +3986,7 @@
         <v>9</v>
       </c>
       <c r="J14" s="36">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3979,7 +3997,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>18</v>
@@ -4005,7 +4023,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>30</v>
@@ -4031,7 +4049,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>18</v>
@@ -4057,7 +4075,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>30</v>
@@ -4083,7 +4101,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>18</v>
@@ -4109,7 +4127,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>30</v>
@@ -4135,7 +4153,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>18</v>
@@ -4161,7 +4179,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>30</v>
@@ -4187,7 +4205,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>18</v>
@@ -4213,7 +4231,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>30</v>
@@ -4236,10 +4254,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>18</v>
@@ -4252,7 +4270,7 @@
         <v>25</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="37"/>
@@ -4265,7 +4283,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>30</v>
@@ -4278,7 +4296,7 @@
         <v>25</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="37"/>
@@ -4288,10 +4306,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>30</v>
@@ -4304,7 +4322,7 @@
         <v>25</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="37"/>
@@ -4314,10 +4332,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>30</v>
@@ -4330,7 +4348,7 @@
         <v>25</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="37"/>
@@ -4340,10 +4358,10 @@
         <v>15</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>30</v>
@@ -4356,7 +4374,7 @@
         <v>25</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="37"/>
@@ -4369,7 +4387,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>18</v>
@@ -4395,7 +4413,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>30</v>
@@ -4421,7 +4439,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>18</v>
@@ -4447,7 +4465,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>30</v>
@@ -4473,7 +4491,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>18</v>
@@ -4499,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>30</v>
@@ -4525,7 +4543,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>18</v>
@@ -4551,7 +4569,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>30</v>
@@ -4577,7 +4595,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>18</v>
@@ -4603,7 +4621,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>30</v>
@@ -4626,10 +4644,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>18</v>
@@ -4652,10 +4670,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>30</v>
@@ -4681,7 +4699,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>18</v>
@@ -4707,7 +4725,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>30</v>
@@ -4733,7 +4751,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>18</v>
@@ -4759,7 +4777,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>30</v>
@@ -4785,7 +4803,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>18</v>
@@ -4811,7 +4829,7 @@
         <v>52</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>30</v>
@@ -4837,7 +4855,7 @@
         <v>54</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>55</v>
@@ -4863,7 +4881,7 @@
         <v>54</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>30</v>
@@ -4889,7 +4907,7 @@
         <v>61</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>18</v>
@@ -4915,7 +4933,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>30</v>
@@ -4941,7 +4959,7 @@
         <v>61</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>18</v>
@@ -4967,7 +4985,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>30</v>
@@ -4993,7 +5011,7 @@
         <v>61</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>18</v>
@@ -5019,7 +5037,7 @@
         <v>61</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>30</v>
@@ -5045,7 +5063,7 @@
         <v>62</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>18</v>
@@ -5071,7 +5089,7 @@
         <v>62</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>30</v>
@@ -5097,7 +5115,7 @@
         <v>65</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>66</v>
@@ -5123,7 +5141,7 @@
         <v>65</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>30</v>
@@ -5149,7 +5167,7 @@
         <v>24</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>18</v>
@@ -5175,7 +5193,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>22</v>
@@ -5199,7 +5217,7 @@
         <v>56</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>22</v>
@@ -5225,7 +5243,7 @@
         <v>68</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>18</v>
@@ -5251,7 +5269,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>30</v>
@@ -5275,7 +5293,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>18</v>
@@ -5301,7 +5319,7 @@
         <v>24</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>22</v>
@@ -5325,7 +5343,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>22</v>
@@ -5351,7 +5369,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>18</v>
@@ -5377,7 +5395,7 @@
         <v>71</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>22</v>
@@ -5403,7 +5421,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>18</v>
@@ -5429,7 +5447,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>30</v>
@@ -5455,7 +5473,7 @@
         <v>51</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>18</v>
@@ -5468,7 +5486,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I72" s="24"/>
       <c r="J72" s="37"/>
@@ -5481,7 +5499,7 @@
         <v>51</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>22</v>
@@ -5494,7 +5512,7 @@
         <v>19</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I73" s="24"/>
       <c r="J73" s="37"/>
@@ -5507,7 +5525,7 @@
         <v>51</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>18</v>
@@ -5520,7 +5538,7 @@
         <v>19</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I74" s="24"/>
       <c r="J74" s="37"/>
@@ -5533,7 +5551,7 @@
         <v>51</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>22</v>
@@ -5546,7 +5564,7 @@
         <v>19</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I75" s="24"/>
       <c r="J75" s="37"/>
@@ -5556,10 +5574,10 @@
         <v>62</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>18</v>
@@ -5572,7 +5590,7 @@
         <v>19</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I76" s="24"/>
       <c r="J76" s="37"/>
@@ -5582,10 +5600,10 @@
         <v>63</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>30</v>
@@ -5598,7 +5616,7 @@
         <v>19</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I77" s="24"/>
       <c r="J77" s="37"/>
@@ -5608,10 +5626,10 @@
         <v>64</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>18</v>
@@ -5624,7 +5642,7 @@
         <v>19</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="37"/>
@@ -5634,10 +5652,10 @@
         <v>65</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>30</v>
@@ -5650,7 +5668,7 @@
         <v>19</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I79" s="24"/>
       <c r="J79" s="37"/>
@@ -5660,10 +5678,10 @@
         <v>66</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>18</v>
@@ -5676,7 +5694,7 @@
         <v>25</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I80" s="24"/>
       <c r="J80" s="37"/>
@@ -5686,10 +5704,10 @@
         <v>67</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>30</v>
@@ -5702,7 +5720,7 @@
         <v>25</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I81" s="24"/>
       <c r="J81" s="37"/>
@@ -5712,10 +5730,10 @@
         <v>68</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>18</v>
@@ -5728,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I82" s="24"/>
       <c r="J82" s="37"/>
@@ -5738,10 +5756,10 @@
         <v>69</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>30</v>
@@ -5754,7 +5772,7 @@
         <v>19</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I83" s="24"/>
       <c r="J83" s="37"/>
@@ -5764,10 +5782,10 @@
         <v>70</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>18</v>
@@ -5780,7 +5798,7 @@
         <v>19</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I84" s="24"/>
       <c r="J84" s="37"/>
@@ -5790,10 +5808,10 @@
         <v>71</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>30</v>
@@ -5806,7 +5824,7 @@
         <v>19</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I85" s="24"/>
       <c r="J85" s="37"/>
@@ -5816,10 +5834,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>18</v>
@@ -5832,7 +5850,7 @@
         <v>25</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I86" s="24"/>
       <c r="J86" s="37"/>
@@ -5842,10 +5860,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>30</v>
@@ -5858,7 +5876,7 @@
         <v>25</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I87" s="24"/>
       <c r="J87" s="37"/>
@@ -5868,10 +5886,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>18</v>
@@ -5884,7 +5902,7 @@
         <v>19</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I88" s="24"/>
       <c r="J88" s="37"/>
@@ -5894,10 +5912,10 @@
         <v>75</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>30</v>
@@ -5910,7 +5928,7 @@
         <v>19</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="37"/>
@@ -5920,10 +5938,10 @@
         <v>76</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>18</v>
@@ -5936,7 +5954,7 @@
         <v>25</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I90" s="24"/>
       <c r="J90" s="37"/>
@@ -5946,10 +5964,10 @@
         <v>77</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>30</v>
@@ -5962,7 +5980,7 @@
         <v>25</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I91" s="24"/>
       <c r="J91" s="37"/>
@@ -5972,10 +5990,10 @@
         <v>78</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>18</v>
@@ -5988,7 +6006,7 @@
         <v>25</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I92" s="24"/>
       <c r="J92" s="37"/>
@@ -5998,10 +6016,10 @@
         <v>79</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>30</v>
@@ -6014,7 +6032,7 @@
         <v>25</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I93" s="24"/>
       <c r="J93" s="37"/>
@@ -6024,10 +6042,10 @@
         <v>80</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>18</v>
@@ -6040,7 +6058,7 @@
         <v>19</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I94" s="24"/>
       <c r="J94" s="37"/>
@@ -6050,10 +6068,10 @@
         <v>81</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>30</v>
@@ -6066,7 +6084,7 @@
         <v>19</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="37"/>
@@ -6115,22 +6133,22 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="40" t="s">
+      <c r="H99" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="22"/>
-      <c r="H100" s="41" t="s">
+      <c r="H100" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
